--- a/DragPrediction/NL2VP DragX/0.5L/n/8/test.xlsx
+++ b/DragPrediction/NL2VP DragX/0.5L/n/8/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windtunnel\Desktop\New folder\8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windtunnel\Documents\GitHub\NU-Python\DragPrediction\NL2VP DragX\0.5L\n\8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -354,15 +354,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -378,8 +378,11 @@
       <c r="E1">
         <v>8.1675991735537194E-3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1">
+        <v>1.235294118E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>-4.438434</v>
       </c>
@@ -400,8 +403,16 @@
         <f>SUM(E2:E109)</f>
         <v>6.5222673732533822</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <f>D2*$G$1</f>
+        <v>1.369962522744359</v>
+      </c>
+      <c r="H2">
+        <f>SUM(G2:G137)</f>
+        <v>9.8644881451713662</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>-4.4295169999999997</v>
       </c>
@@ -418,8 +429,12 @@
         <f t="shared" ref="E3:E66" si="0">D3*$E$1</f>
         <v>0.87639539769309915</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="1">D3*$G$1</f>
+        <v>1.3254887474375345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>-4.4112030000000004</v>
       </c>
@@ -436,8 +451,12 @@
         <f t="shared" si="0"/>
         <v>0.8166975495680826</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1.2351997909411494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>-4.3983439999999998</v>
       </c>
@@ -454,8 +473,12 @@
         <f t="shared" si="0"/>
         <v>0.4649986872550661</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.70327905549505454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>-4.3895369999999998</v>
       </c>
@@ -472,8 +495,12 @@
         <f t="shared" si="0"/>
         <v>0.4251804733173099</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.64305670077196575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>-4.3829859999999998</v>
       </c>
@@ -490,8 +517,12 @@
         <f t="shared" si="0"/>
         <v>0.72683851372895458</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1.0992940785493781</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>-4.3762920000000003</v>
       </c>
@@ -508,8 +539,12 @@
         <f t="shared" si="0"/>
         <v>0.34250902276209916</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.51802172485388853</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>-4.3461720000000001</v>
       </c>
@@ -526,8 +561,12 @@
         <f t="shared" si="0"/>
         <v>0.44767473568720662</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.67707775078168608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>-4.3428620000000002</v>
       </c>
@@ -544,8 +583,12 @@
         <f t="shared" si="0"/>
         <v>0.2639431384454628</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.39919614011405602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>-4.3056179999999999</v>
       </c>
@@ -562,8 +605,12 @@
         <f t="shared" si="0"/>
         <v>3.0136170357842978E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>4.5578918836551963E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>-4.3050369999999996</v>
       </c>
@@ -580,8 +627,12 @@
         <f t="shared" si="0"/>
         <v>0.18678101939878514</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.28249365537483012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>-4.2913009999999998</v>
       </c>
@@ -598,8 +649,12 @@
         <f t="shared" si="0"/>
         <v>1.9408086016574379E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>2.935341706721022E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>-4.2731450000000004</v>
       </c>
@@ -616,8 +671,12 @@
         <f t="shared" si="0"/>
         <v>0.26364390211454131</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.3987435654080444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>-4.2616860000000001</v>
       </c>
@@ -634,8 +693,12 @@
         <f t="shared" si="0"/>
         <v>-4.0034304109090911E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>-6.0549176487887995E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>-4.2422899999999997</v>
       </c>
@@ -652,8 +715,12 @@
         <f t="shared" si="0"/>
         <v>0.12713997692602066</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.19229061358435195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>-4.2140040000000001</v>
       </c>
@@ -670,8 +737,12 @@
         <f t="shared" si="0"/>
         <v>1.6704994567289255E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>2.5265174124865678E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>-4.1775000000000002</v>
       </c>
@@ -688,8 +759,12 @@
         <f t="shared" si="0"/>
         <v>-9.9777433403925628E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>-0.15090661769017502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>-4.1723150000000002</v>
       </c>
@@ -706,8 +781,12 @@
         <f t="shared" si="0"/>
         <v>0.10273471687469009</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.1553793088679235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>-4.1522800000000002</v>
       </c>
@@ -724,8 +803,12 @@
         <f t="shared" si="0"/>
         <v>-7.0500821183107437E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>-0.10662772238340623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>-4.0949330000000002</v>
       </c>
@@ -742,8 +825,12 @@
         <f t="shared" si="0"/>
         <v>4.0492008199177691E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>6.1241422958674026E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>-4.0550699999999997</v>
       </c>
@@ -760,8 +847,12 @@
         <f t="shared" si="0"/>
         <v>-4.0523698483971075E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>-6.1289352370452424E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>-4.0395919999999998</v>
       </c>
@@ -778,8 +869,12 @@
         <f t="shared" si="0"/>
         <v>-3.568455932562397E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>-5.397048178012602E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>-4.0242709999999997</v>
       </c>
@@ -796,8 +891,12 @@
         <f t="shared" si="0"/>
         <v>-4.0975954785409094E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>-6.1973359429471381E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>-3.988057</v>
       </c>
@@ -814,8 +913,12 @@
         <f t="shared" si="0"/>
         <v>-0.15794768728791325</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>-0.23888519124472352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>-3.9762580000000001</v>
       </c>
@@ -832,8 +935,12 @@
         <f t="shared" si="0"/>
         <v>-5.5023457609599175E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>-8.3219257082600459E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>-3.9730120000000002</v>
       </c>
@@ -850,8 +957,12 @@
         <f t="shared" si="0"/>
         <v>-0.12873348369238016</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>-0.19470068476151112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>-3.9127459999999998</v>
       </c>
@@ -868,8 +979,12 @@
         <f t="shared" si="0"/>
         <v>-0.10139460170509092</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>-0.15335247533793264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>-3.8180770000000002</v>
       </c>
@@ -886,8 +1001,12 @@
         <f t="shared" si="0"/>
         <v>-9.2808535587880173E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>-0.14036663121657536</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>-3.4389419999999999</v>
       </c>
@@ -904,8 +1023,12 @@
         <f t="shared" si="0"/>
         <v>1.8975113416785122E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>2.8698575302317238E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>-3.377043</v>
       </c>
@@ -922,8 +1045,12 @@
         <f t="shared" si="0"/>
         <v>0.16438013719023969</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>0.24861383654162078</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>-3.3690709999999999</v>
       </c>
@@ -940,8 +1067,12 @@
         <f t="shared" si="0"/>
         <v>0.14455287364888017</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0.21862644182717059</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>-3.355003</v>
       </c>
@@ -958,8 +1089,12 @@
         <f t="shared" si="0"/>
         <v>0.13721293813757851</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>0.20752528594164588</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>-3.337707</v>
       </c>
@@ -976,8 +1111,12 @@
         <f t="shared" si="0"/>
         <v>0.11991080222711158</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0.18135697593416922</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>-3.3225959999999999</v>
       </c>
@@ -994,8 +1133,12 @@
         <f t="shared" si="0"/>
         <v>-7.1992510658169431E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>-0.10888380179581554</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>-3.314066</v>
       </c>
@@ -1012,8 +1155,12 @@
         <f t="shared" si="0"/>
         <v>9.4809189005442149E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>0.14339248415861633</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>-3.1505320000000001</v>
       </c>
@@ -1030,8 +1177,12 @@
         <f t="shared" si="0"/>
         <v>6.5053767618272737E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>9.8389422381052444E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>-3.1472479999999998</v>
       </c>
@@ -1048,8 +1199,12 @@
         <f t="shared" si="0"/>
         <v>6.5915849543442151E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>9.969326296966026E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>-3.1339079999999999</v>
       </c>
@@ -1066,8 +1221,12 @@
         <f t="shared" si="0"/>
         <v>5.1606281132169425E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>7.8051008845829703E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>-3.1178129999999999</v>
       </c>
@@ -1084,8 +1243,12 @@
         <f t="shared" si="0"/>
         <v>3.3529260585309917E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>5.0710738249782901E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>-3.1000540000000001</v>
       </c>
@@ -1102,8 +1265,12 @@
         <f t="shared" si="0"/>
         <v>4.2779515867314051E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>6.4701123547897801E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>-3.065591</v>
       </c>
@@ -1120,8 +1287,12 @@
         <f t="shared" si="0"/>
         <v>-4.9994193077690083E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>-7.561283472748602E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>-2.897761</v>
       </c>
@@ -1138,8 +1309,12 @@
         <f t="shared" si="0"/>
         <v>-7.3838208384210749E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>-0.11167529473778959</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>-2.8852859999999998</v>
       </c>
@@ -1156,8 +1331,12 @@
         <f t="shared" si="0"/>
         <v>-8.0938032815008276E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>-0.12241329885850465</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>-2.8822019999999999</v>
       </c>
@@ -1174,8 +1353,12 @@
         <f t="shared" si="0"/>
         <v>-8.4085858206892572E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>-0.12717417180104137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>-2.8516870000000001</v>
       </c>
@@ -1192,8 +1375,12 @@
         <f t="shared" si="0"/>
         <v>-9.6515890528747927E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>-0.14597375474758914</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>-2.8307229999999999</v>
       </c>
@@ -1210,8 +1397,12 @@
         <f t="shared" si="0"/>
         <v>-0.10966549650539256</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>-0.1658616441650361</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>-2.7801969999999998</v>
       </c>
@@ -1228,8 +1419,12 @@
         <f t="shared" si="0"/>
         <v>-0.10451010790704546</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>-0.1580644676922201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>-2.5684800000000001</v>
       </c>
@@ -1246,8 +1441,12 @@
         <f t="shared" si="0"/>
         <v>-0.16419260094561569</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>-0.24833020065918676</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>-2.560635</v>
       </c>
@@ -1264,8 +1463,12 @@
         <f t="shared" si="0"/>
         <v>-0.16293914400324794</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>-0.24643443183511571</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>-2.5423770000000001</v>
       </c>
@@ -1282,8 +1485,12 @@
         <f t="shared" si="0"/>
         <v>-0.1564959455404091</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>-0.23668953006762558</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>-2.5137130000000001</v>
       </c>
@@ -1300,8 +1507,12 @@
         <f t="shared" si="0"/>
         <v>-7.201764236082645E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>-1.0892181179582639E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>-2.5064350000000002</v>
       </c>
@@ -1318,8 +1529,12 @@
         <f t="shared" si="0"/>
         <v>-0.13605746788249587</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>-0.20577771535291128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>-2.4443649999999999</v>
       </c>
@@ -1336,8 +1551,12 @@
         <f t="shared" si="0"/>
         <v>-0.10917272074445455</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>-0.16511635416482318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>-2.2908029999999999</v>
       </c>
@@ -1354,8 +1573,12 @@
         <f t="shared" si="0"/>
         <v>-1.3478874569727272E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>-2.0385885888177479E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>-1.6980120000000001</v>
       </c>
@@ -1372,8 +1595,12 @@
         <f t="shared" si="0"/>
         <v>3.3207089635909092E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>5.0223476484937803E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>-1.604177</v>
       </c>
@@ -1390,8 +1617,12 @@
         <f t="shared" si="0"/>
         <v>1.0564127955458679E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>1.5977528828094421E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>-1.0038199999999999</v>
       </c>
@@ -1408,8 +1639,12 @@
         <f t="shared" si="0"/>
         <v>1.6373741247607439E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>2.4764175889428423E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>-0.894509</v>
       </c>
@@ -1426,8 +1661,12 @@
         <f t="shared" si="0"/>
         <v>1.3908759817028927E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>2.1036058241304421E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>-0.827963</v>
       </c>
@@ -1444,8 +1683,12 @@
         <f t="shared" si="0"/>
         <v>1.0496508401900827E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>1.5875258828065199E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>-0.702538</v>
       </c>
@@ -1462,8 +1705,12 @@
         <f t="shared" si="0"/>
         <v>4.7867766800454544E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>7.2396758844214199E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>-0.65612099999999995</v>
       </c>
@@ -1480,8 +1727,12 @@
         <f t="shared" si="0"/>
         <v>3.010199712290083E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>4.5527234130654841E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>-0.65587399999999996</v>
       </c>
@@ -1498,8 +1749,12 @@
         <f t="shared" si="0"/>
         <v>3.0386956490466945E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>4.5958215895483857E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>-0.64549599999999996</v>
       </c>
@@ -1516,8 +1771,12 @@
         <f t="shared" si="0"/>
         <v>1.7630285542462813E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>2.6664614125265523E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>-0.58749899999999999</v>
       </c>
@@ -1534,8 +1793,12 @@
         <f t="shared" si="0"/>
         <v>1.8995026023570248E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>2.8728691772914081E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>-0.581843</v>
       </c>
@@ -1552,8 +1815,12 @@
         <f t="shared" si="0"/>
         <v>1.9226920499305786E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>2.9079416478896641E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>-0.53861000000000003</v>
       </c>
@@ -1567,11 +1834,15 @@
         <v>2.4085969999999999</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E109" si="1">D67*$E$1</f>
+        <f t="shared" ref="E67:E109" si="2">D67*$E$1</f>
         <v>1.9672454866623966E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="G67">
+        <f t="shared" ref="G67:G109" si="3">D67*$G$1</f>
+        <v>2.975325706732446E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>-0.52471299999999998</v>
       </c>
@@ -1585,11 +1856,15 @@
         <v>2.470596</v>
       </c>
       <c r="E68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0178837847785125E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="G68">
+        <f t="shared" si="3"/>
+        <v>3.051912706754328E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>-0.52008500000000002</v>
       </c>
@@ -1603,11 +1878,15 @@
         <v>5.3751429999999996</v>
       </c>
       <c r="E69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3902013524533059E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="G69">
+        <f t="shared" si="3"/>
+        <v>6.639882531308873E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>-0.51299499999999998</v>
       </c>
@@ -1621,11 +1900,15 @@
         <v>2.2851180000000002</v>
       </c>
       <c r="E70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.866392788827273E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="G70">
+        <f t="shared" si="3"/>
+        <v>2.8227928243359242E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>-0.49454799999999999</v>
       </c>
@@ -1639,11 +1922,15 @@
         <v>2.1932369999999999</v>
       </c>
       <c r="E71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7913480708607439E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="G71">
+        <f t="shared" si="3"/>
+        <v>2.7092927654799658E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>-0.473748</v>
       </c>
@@ -1657,11 +1944,15 @@
         <v>2.7594379999999998</v>
       </c>
       <c r="E72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2537983528272725E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="G72">
+        <f t="shared" si="3"/>
+        <v>3.408717530385684E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>-0.440583</v>
       </c>
@@ -1675,11 +1966,15 @@
         <v>1.8771789999999999</v>
       </c>
       <c r="E73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5332045649012397E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="G73">
+        <f t="shared" si="3"/>
+        <v>2.318868177133122E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>-0.42997999999999997</v>
       </c>
@@ -1693,11 +1988,15 @@
         <v>3.025922</v>
       </c>
       <c r="E74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4714518026438016E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="G74">
+        <f t="shared" si="3"/>
+        <v>3.737903648126796E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>-0.40083000000000002</v>
       </c>
@@ -1711,11 +2010,15 @@
         <v>3.0059909999999999</v>
       </c>
       <c r="E75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4551729607309919E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="G75">
+        <f t="shared" si="3"/>
+        <v>3.713283001060938E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>-0.39266600000000002</v>
       </c>
@@ -1729,11 +2032,15 @@
         <v>2.3017050000000001</v>
       </c>
       <c r="E76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8799403855764465E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="G76">
+        <f t="shared" si="3"/>
+        <v>2.8432826478711901E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>-0.385797</v>
       </c>
@@ -1747,11 +2054,15 @@
         <v>2.9230299999999998</v>
       </c>
       <c r="E77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3874137412272727E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="G77">
+        <f t="shared" si="3"/>
+        <v>3.6108017657375396E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>-0.35256700000000002</v>
       </c>
@@ -1765,11 +2076,15 @@
         <v>2.6530749999999999</v>
       </c>
       <c r="E78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1669253177376033E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="G78">
+        <f t="shared" si="3"/>
+        <v>3.2773279421128496E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>-0.32366899999999998</v>
       </c>
@@ -1783,11 +2098,15 @@
         <v>9.2095640000000003</v>
       </c>
       <c r="E79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.5220027315190091E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="G79">
+        <f t="shared" si="3"/>
+        <v>0.11376520238544553</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>-0.32227099999999997</v>
       </c>
@@ -1801,11 +2120,15 @@
         <v>2.1175549999999999</v>
       </c>
       <c r="E80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7295340467954546E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="G80">
+        <f t="shared" si="3"/>
+        <v>2.6158032360414897E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>-0.300205</v>
       </c>
@@ -1819,11 +2142,15 @@
         <v>1.807887</v>
       </c>
       <c r="E81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4766096367078513E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="G81">
+        <f t="shared" si="3"/>
+        <v>2.233272177108666E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>-0.29196100000000003</v>
       </c>
@@ -1837,11 +2164,15 @@
         <v>2.1698650000000002</v>
       </c>
       <c r="E82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7722587580723141E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="G82">
+        <f t="shared" si="3"/>
+        <v>2.6804214713540702E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>-0.24761900000000001</v>
       </c>
@@ -1855,11 +2186,15 @@
         <v>3.2793380000000001</v>
       </c>
       <c r="E83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6784318338603307E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="G83">
+        <f t="shared" si="3"/>
+        <v>4.0509469423338842E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>-0.23011499999999999</v>
       </c>
@@ -1873,11 +2208,15 @@
         <v>3.9470339999999999</v>
       </c>
       <c r="E84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.223779163638843E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="G84">
+        <f t="shared" si="3"/>
+        <v>4.8757478837460122E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>-0.21899199999999999</v>
       </c>
@@ -1891,11 +2230,15 @@
         <v>3.146245</v>
       </c>
       <c r="E85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5697268061797521E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="G85">
+        <f t="shared" si="3"/>
+        <v>3.8865379422869099E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>-0.209115</v>
       </c>
@@ -1909,11 +2252,15 @@
         <v>14.261841</v>
       </c>
       <c r="E86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11648500076495455</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="G86">
+        <f t="shared" si="3"/>
+        <v>0.1761756829915124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>-0.191936</v>
       </c>
@@ -1927,11 +2274,15 @@
         <v>2.7042000000000002</v>
       </c>
       <c r="E87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2086821685123968E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="G87">
+        <f t="shared" si="3"/>
+        <v>3.3404823538956005E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>-0.182284</v>
       </c>
@@ -1945,11 +2296,15 @@
         <v>2.1820409999999999</v>
       </c>
       <c r="E88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.782203626826033E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="G88">
+        <f t="shared" si="3"/>
+        <v>2.6954624125348381E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>-0.17738599999999999</v>
       </c>
@@ -1963,11 +2318,15 @@
         <v>2.79989</v>
       </c>
       <c r="E89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2868379250041322E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="G89">
+        <f t="shared" si="3"/>
+        <v>3.4586876480470201E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>-0.17283999999999999</v>
       </c>
@@ -1981,11 +2340,15 @@
         <v>8.5495680000000007</v>
       </c>
       <c r="E90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.9829444531041326E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="G90">
+        <f t="shared" si="3"/>
+        <v>0.10561231061841025</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>-0.17224</v>
       </c>
@@ -1999,11 +2362,15 @@
         <v>1.84443</v>
       </c>
       <c r="E91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5064564943677687E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="G91">
+        <f t="shared" si="3"/>
+        <v>2.2784135300627402E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>-0.166655</v>
       </c>
@@ -2017,11 +2384,15 @@
         <v>10.297931</v>
       </c>
       <c r="E92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.4109372724913228E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="G92">
+        <f t="shared" si="3"/>
+        <v>0.12720973591869858</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>-0.14733099999999999</v>
       </c>
@@ -2035,11 +2406,15 @@
         <v>6.7360910000000001</v>
       </c>
       <c r="E93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.501769128458265E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="G93">
+        <f t="shared" si="3"/>
+        <v>8.3210535906127384E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>-0.14432600000000001</v>
       </c>
@@ -2053,11 +2428,15 @@
         <v>3.9836469999999999</v>
       </c>
       <c r="E94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2536831944929755E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="G94">
+        <f t="shared" si="3"/>
+        <v>4.9209757072883463E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>-0.12465900000000001</v>
       </c>
@@ -2071,11 +2450,15 @@
         <v>3.4685609999999998</v>
       </c>
       <c r="E95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8329815957020662E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="G95">
+        <f t="shared" si="3"/>
+        <v>4.2846930012241977E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>-0.11368</v>
       </c>
@@ -2089,11 +2472,15 @@
         <v>8.1290169999999993</v>
       </c>
       <c r="E96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6394552531004125E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="G96">
+        <f t="shared" si="3"/>
+        <v>0.10041726885222005</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>-0.113022</v>
       </c>
@@ -2107,11 +2494,15 @@
         <v>3.0100380000000002</v>
       </c>
       <c r="E97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4584783881165292E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="G97">
+        <f t="shared" si="3"/>
+        <v>3.7182822363564842E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>-0.110179</v>
       </c>
@@ -2125,11 +2516,15 @@
         <v>7.7568539999999997</v>
       </c>
       <c r="E98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3354874319776863E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="G98">
+        <f t="shared" si="3"/>
+        <v>9.5819961203847712E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>-0.105466</v>
       </c>
@@ -2143,11 +2538,15 @@
         <v>2.8430040000000001</v>
       </c>
       <c r="E99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3220517120809921E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="G99">
+        <f t="shared" si="3"/>
+        <v>3.5119461186504719E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>-7.0307999999999995E-2</v>
       </c>
@@ -2161,11 +2560,15 @@
         <v>7.753018</v>
       </c>
       <c r="E100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3323543409347108E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="G100">
+        <f t="shared" si="3"/>
+        <v>9.5772575321481243E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>-6.6478999999999996E-2</v>
       </c>
@@ -2179,11 +2582,15 @@
         <v>7.9982819999999997</v>
       </c>
       <c r="E101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5326761453049581E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="G101">
+        <f t="shared" si="3"/>
+        <v>9.880230708705276E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>-5.9538000000000001E-2</v>
       </c>
@@ -2197,11 +2604,15 @@
         <v>6.6801560000000002</v>
       </c>
       <c r="E102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.4560836624809921E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="G102">
+        <f t="shared" si="3"/>
+        <v>8.2519574141224086E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>-5.6467999999999997E-2</v>
       </c>
@@ -2215,11 +2626,15 @@
         <v>6.7574630000000004</v>
       </c>
       <c r="E103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5192249214119839E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="G103">
+        <f t="shared" si="3"/>
+        <v>8.3474542965026349E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>-5.5293000000000002E-2</v>
       </c>
@@ -2233,11 +2648,15 @@
         <v>6.3506429999999998</v>
       </c>
       <c r="E104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1869506518334711E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="G104">
+        <f t="shared" si="3"/>
+        <v>7.8449119434178732E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>-4.1259999999999998E-2</v>
       </c>
@@ -2251,11 +2670,15 @@
         <v>6.9206950000000003</v>
       </c>
       <c r="E105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6525462762417357E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="G105">
+        <f t="shared" si="3"/>
+        <v>8.5490938259720109E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>-3.6655E-2</v>
       </c>
@@ -2269,11 +2692,15 @@
         <v>7.1701379999999997</v>
       </c>
       <c r="E106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8562813203066118E-2</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="G106">
+        <f t="shared" si="3"/>
+        <v>8.8572292966482835E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>-2.2277000000000002E-2</v>
       </c>
@@ -2287,11 +2714,15 @@
         <v>5.144031</v>
       </c>
       <c r="E107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2014383344334716E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="G107">
+        <f t="shared" si="3"/>
+        <v>6.3543912371096578E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>-1.0905E-2</v>
       </c>
@@ -2305,11 +2736,15 @@
         <v>4.3989510000000003</v>
       </c>
       <c r="E108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.592886855210331E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="G108">
+        <f t="shared" si="3"/>
+        <v>5.4339982956702185E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>-6.1830000000000001E-3</v>
       </c>
@@ -2323,8 +2758,12 @@
         <v>3.805561</v>
       </c>
       <c r="E109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1082296878508265E-2</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="3"/>
+        <v>4.7009871189901978E-2</v>
       </c>
     </row>
   </sheetData>

--- a/DragPrediction/NL2VP DragX/0.5L/n/8/test.xlsx
+++ b/DragPrediction/NL2VP DragX/0.5L/n/8/test.xlsx
@@ -379,7 +379,7 @@
         <v>8.1675991735537194E-3</v>
       </c>
       <c r="G1">
-        <v>1.235294118E-2</v>
+        <v>1.2200981481481481E-2</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -405,11 +405,11 @@
       </c>
       <c r="G2">
         <f>D2*$G$1</f>
-        <v>1.369962522744359</v>
+        <v>1.3531099295922964</v>
       </c>
       <c r="H2">
         <f>SUM(G2:G137)</f>
-        <v>9.8644881451713662</v>
+        <v>9.7431401501686352</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -431,7 +431,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" si="1">D3*$G$1</f>
-        <v>1.3254887474375345</v>
+        <v>1.3091832484057406</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -453,7 +453,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>1.2351997909411494</v>
+        <v>1.2200049814535554</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -475,7 +475,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>0.70327905549505454</v>
+        <v>0.69462766861559255</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -497,7 +497,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>0.64305670077196575</v>
+        <v>0.63514613915301843</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -519,7 +519,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>1.0992940785493781</v>
+        <v>1.0857711131012777</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -541,7 +541,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>0.51802172485388853</v>
+        <v>0.51164928091622219</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -563,7 +563,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>0.67707775078168608</v>
+        <v>0.66874867923644443</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -585,7 +585,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>0.39919614011405602</v>
+        <v>0.39428542903581476</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -607,7 +607,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>4.5578918836551963E-2</v>
+        <v>4.5018229793814812E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -629,7 +629,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>0.28249365537483012</v>
+        <v>0.27901855984262963</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -651,7 +651,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>2.935341706721022E-2</v>
+        <v>2.8992326024759256E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -673,7 +673,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>0.3987435654080444</v>
+        <v>0.39383842167727773</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -695,7 +695,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>-6.0549176487887995E-3</v>
+        <v>-5.9804330829629623E-3</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -717,7 +717,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>0.19229061358435195</v>
+        <v>0.18992515071664814</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -739,7 +739,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>2.5265174124865678E-2</v>
+        <v>2.4954374600518515E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -761,7 +761,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>-0.15090661769017502</v>
+        <v>-0.14905024002314815</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -783,7 +783,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>0.1553793088679235</v>
+        <v>0.15346791039305555</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -805,7 +805,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>-0.10662772238340623</v>
+        <v>-0.10531604152044444</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -827,7 +827,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>6.1241422958674026E-2</v>
+        <v>6.0488061630870373E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -849,7 +849,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>-6.1289352370452424E-2</v>
+        <v>-6.0535401439018519E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -871,7 +871,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>-5.397048178012602E-2</v>
+        <v>-5.3306563930870368E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -893,7 +893,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>-6.1973359429471381E-2</v>
+        <v>-6.1210994185611114E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -915,7 +915,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>-0.23888519124472352</v>
+        <v>-0.23594654520787037</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -937,7 +937,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>-8.3219257082600459E-2</v>
+        <v>-8.2195535441500003E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -959,7 +959,7 @@
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>-0.19470068476151112</v>
+        <v>-0.19230557440466664</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -981,7 +981,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>-0.15335247533793264</v>
+        <v>-0.15146600995451853</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>-0.14036663121657536</v>
+        <v>-0.13863991118683333</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>2.8698575302317238E-2</v>
+        <v>2.8345539795444442E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>0.24861383654162078</v>
+        <v>0.24555551358048147</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>0.21862644182717059</v>
+        <v>0.21593700878412961</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
-        <v>0.20752528594164588</v>
+        <v>0.20497241376107406</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
-        <v>0.18135697593416922</v>
+        <v>0.17912601320346297</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
-        <v>-0.10888380179581554</v>
+        <v>-0.10754436777331482</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="1"/>
-        <v>0.14339248415861633</v>
+        <v>0.14162854160072222</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="G37">
         <f t="shared" si="1"/>
-        <v>9.8389422381052444E-2</v>
+        <v>9.717908496062963E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="G38">
         <f t="shared" si="1"/>
-        <v>9.969326296966026E-2</v>
+        <v>9.8466886355018504E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="G39">
         <f t="shared" si="1"/>
-        <v>7.8051008845829703E-2</v>
+        <v>7.7090864407314816E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="G40">
         <f t="shared" si="1"/>
-        <v>5.0710738249782901E-2</v>
+        <v>5.0086920133611108E-2</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="G41">
         <f t="shared" si="1"/>
-        <v>6.4701123547897801E-3</v>
+        <v>6.390520271537037E-3</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="G42">
         <f t="shared" si="1"/>
-        <v>-7.561283472748602E-2</v>
+        <v>-7.4682683486425913E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="1"/>
-        <v>-0.11167529473778959</v>
+        <v>-0.11030152116653703</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="1"/>
-        <v>-0.12241329885850465</v>
+        <v>-0.12090743173600001</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="G45">
         <f t="shared" si="1"/>
-        <v>-0.12717417180104137</v>
+        <v>-0.12560973880288889</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G46">
         <f t="shared" si="1"/>
-        <v>-0.14597375474758914</v>
+        <v>-0.14417805869109257</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="G47">
         <f t="shared" si="1"/>
-        <v>-0.1658616441650361</v>
+        <v>-0.16382129724879629</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="1"/>
-        <v>-0.1580644676922201</v>
+        <v>-0.15612003773768518</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="1"/>
-        <v>-0.24833020065918676</v>
+        <v>-0.24527536684468515</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="1"/>
-        <v>-0.24643443183511571</v>
+        <v>-0.24340291881966666</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="1"/>
-        <v>-0.23668953006762558</v>
+        <v>-0.23377789395542592</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="G52">
         <f t="shared" si="1"/>
-        <v>-1.0892181179582639E-2</v>
+        <v>-1.0758191019333332E-2</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="G53">
         <f t="shared" si="1"/>
-        <v>-0.20577771535291128</v>
+        <v>-0.20324634091088889</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="G54">
         <f t="shared" si="1"/>
-        <v>-0.16511635416482318</v>
+        <v>-0.16308517543307408</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="G55">
         <f t="shared" si="1"/>
-        <v>-2.0385885888177479E-2</v>
+        <v>-2.0135108925148148E-2</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="G56">
         <f t="shared" si="1"/>
-        <v>5.0223476484937803E-3</v>
+        <v>4.9605652419074074E-3</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="G57">
         <f t="shared" si="1"/>
-        <v>1.5977528828094421E-2</v>
+        <v>1.5780981266796296E-2</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="G58">
         <f t="shared" si="1"/>
-        <v>2.4764175889428423E-2</v>
+        <v>2.4459539394574074E-2</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="G59">
         <f t="shared" si="1"/>
-        <v>2.1036058241304421E-2</v>
+        <v>2.0777283183462964E-2</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="G60">
         <f t="shared" si="1"/>
-        <v>1.5875258828065199E-2</v>
+        <v>1.567996934111111E-2</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="G61">
         <f t="shared" si="1"/>
-        <v>7.2396758844214199E-3</v>
+        <v>7.1506170158703699E-3</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="G62">
         <f t="shared" si="1"/>
-        <v>4.5527234130654841E-2</v>
+        <v>4.4967180887296294E-2</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="G63">
         <f t="shared" si="1"/>
-        <v>4.5958215895483857E-2</v>
+        <v>4.5392860930203699E-2</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="G64">
         <f t="shared" si="1"/>
-        <v>2.6664614125265523E-2</v>
+        <v>2.6336599390592595E-2</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="G65">
         <f t="shared" si="1"/>
-        <v>2.8728691772914081E-2</v>
+        <v>2.8375285788296293E-2</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="G66">
         <f t="shared" si="1"/>
-        <v>2.9079416478896641E-2</v>
+        <v>2.872169605451852E-2</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G109" si="3">D67*$G$1</f>
-        <v>2.975325706732446E-2</v>
+        <v>2.9387247393351849E-2</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="G68">
         <f t="shared" si="3"/>
-        <v>3.051912706754328E-2</v>
+        <v>3.0143696044222221E-2</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="G69">
         <f t="shared" si="3"/>
-        <v>6.639882531308873E-2</v>
+        <v>6.55820202033148E-2</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="G70">
         <f t="shared" si="3"/>
-        <v>2.8227928243359242E-2</v>
+        <v>2.7880682401000001E-2</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="G71">
         <f t="shared" si="3"/>
-        <v>2.7092927654799658E-2</v>
+        <v>2.6759644021499999E-2</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="G72">
         <f t="shared" si="3"/>
-        <v>3.408717530385684E-2</v>
+        <v>3.3667851937296295E-2</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="G73">
         <f t="shared" si="3"/>
-        <v>2.318868177133122E-2</v>
+        <v>2.2903426216425923E-2</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="G74">
         <f t="shared" si="3"/>
-        <v>3.737903648126796E-2</v>
+        <v>3.6919218286407408E-2</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="G75">
         <f t="shared" si="3"/>
-        <v>3.713283001060938E-2</v>
+        <v>3.6676040524499999E-2</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="G76">
         <f t="shared" si="3"/>
-        <v>2.8432826478711901E-2</v>
+        <v>2.8083060080833333E-2</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="G77">
         <f t="shared" si="3"/>
-        <v>3.6108017657375396E-2</v>
+        <v>3.5663834899814811E-2</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="G78">
         <f t="shared" si="3"/>
-        <v>3.2773279421128496E-2</v>
+        <v>3.237011894398148E-2</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="G79">
         <f t="shared" si="3"/>
-        <v>0.11376520238544553</v>
+        <v>0.11236571981651852</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="G80">
         <f t="shared" si="3"/>
-        <v>2.6158032360414897E-2</v>
+        <v>2.5836249341018514E-2</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="G81">
         <f t="shared" si="3"/>
-        <v>2.233272177108666E-2</v>
+        <v>2.205799580761111E-2</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="G82">
         <f t="shared" si="3"/>
-        <v>2.6804214713540702E-2</v>
+        <v>2.6474482682314816E-2</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="G83">
         <f t="shared" si="3"/>
-        <v>4.0509469423338842E-2</v>
+        <v>4.001114220951852E-2</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="G84">
         <f t="shared" si="3"/>
-        <v>4.8757478837460122E-2</v>
+        <v>4.8157688740777777E-2</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="G85">
         <f t="shared" si="3"/>
-        <v>3.8865379422869099E-2</v>
+        <v>3.83872769812037E-2</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="G86">
         <f t="shared" si="3"/>
-        <v>0.1761756829915124</v>
+        <v>0.17400845793283334</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="G87">
         <f t="shared" si="3"/>
-        <v>3.3404823538956005E-2</v>
+        <v>3.2993894122222221E-2</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="G88">
         <f t="shared" si="3"/>
-        <v>2.6954624125348381E-2</v>
+        <v>2.662304183283333E-2</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="G89">
         <f t="shared" si="3"/>
-        <v>3.4586876480470201E-2</v>
+        <v>3.4161406040185187E-2</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="G90">
         <f t="shared" si="3"/>
-        <v>0.10561231061841025</v>
+        <v>0.10431312084266667</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="G91">
         <f t="shared" si="3"/>
-        <v>2.2784135300627402E-2</v>
+        <v>2.250385627388889E-2</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="G92">
         <f t="shared" si="3"/>
-        <v>0.12720973591869858</v>
+        <v>0.12564486542857406</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="G93">
         <f t="shared" si="3"/>
-        <v>8.3210535906127384E-2</v>
+        <v>8.2186921548574071E-2</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="G94">
         <f t="shared" si="3"/>
-        <v>4.9209757072883463E-2</v>
+        <v>4.860440327575926E-2</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="G95">
         <f t="shared" si="3"/>
-        <v>4.2846930012241977E-2</v>
+        <v>4.2319848528388881E-2</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="G96">
         <f t="shared" si="3"/>
-        <v>0.10041726885222005</v>
+        <v>9.9181985879648132E-2</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="G97">
         <f t="shared" si="3"/>
-        <v>3.7182822363564842E-2</v>
+        <v>3.6725417896555555E-2</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="G98">
         <f t="shared" si="3"/>
-        <v>9.5819961203847712E-2</v>
+        <v>9.4641232008555551E-2</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="G99">
         <f t="shared" si="3"/>
-        <v>3.5119461186504719E-2</v>
+        <v>3.468743915577778E-2</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="G100">
         <f t="shared" si="3"/>
-        <v>9.5772575321481243E-2</v>
+        <v>9.4594429043592596E-2</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="G101">
         <f t="shared" si="3"/>
-        <v>9.880230708705276E-2</v>
+        <v>9.7586890565666662E-2</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="G102">
         <f t="shared" si="3"/>
-        <v>8.2519574141224086E-2</v>
+        <v>8.1504459649407404E-2</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="G103">
         <f t="shared" si="3"/>
-        <v>8.3474542965026349E-2</v>
+        <v>8.2447680924796304E-2</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="G104">
         <f t="shared" si="3"/>
-        <v>7.8449119434178732E-2</v>
+        <v>7.7484077638500001E-2</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="G105">
         <f t="shared" si="3"/>
-        <v>8.5490938259720109E-2</v>
+        <v>8.443927153398148E-2</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="G106">
         <f t="shared" si="3"/>
-        <v>8.8572292966482835E-2</v>
+        <v>8.7482720957666654E-2</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="G107">
         <f t="shared" si="3"/>
-        <v>6.3543912371096578E-2</v>
+        <v>6.2762226971166665E-2</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="G108">
         <f t="shared" si="3"/>
-        <v>5.4339982956702185E-2</v>
+        <v>5.3671519688944444E-2</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="G109">
         <f t="shared" si="3"/>
-        <v>4.7009871189901978E-2</v>
+        <v>4.6431579287648149E-2</v>
       </c>
     </row>
   </sheetData>
